--- a/data/income_statement/3digits/total/266_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/266_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>266-Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>266-Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>41455.46468</v>
@@ -962,10 +868,10 @@
         <v>58331.36703</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>60409.26323999999</v>
+        <v>60409.26324</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>82711.27449000001</v>
+        <v>82711.27449</v>
       </c>
       <c r="I5" s="47" t="n">
         <v>115737.72721</v>
@@ -980,13 +886,18 @@
         <v>195920.47407</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>193638.27901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>194713.29347</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>318391.855</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>28727.73281</v>
@@ -1019,19 +930,24 @@
         <v>134730.75813</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>128183.74477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>129148.17598</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>198313.225</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>12087.34724</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7313.9465</v>
+        <v>7313.946500000001</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>3527.52104</v>
@@ -1052,7 +968,7 @@
         <v>14940.25019</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>41970.96316000001</v>
+        <v>41970.96316</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>59619.62821</v>
@@ -1060,14 +976,19 @@
       <c r="M7" s="48" t="n">
         <v>63516.30472</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>114789.882</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>640.38463</v>
+        <v>640.3846300000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>467.50436</v>
@@ -1088,7 +1009,7 @@
         <v>705.1039000000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>902.1405800000001</v>
+        <v>902.14058</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1507.50606</v>
@@ -1097,13 +1018,18 @@
         <v>1570.08773</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1938.22952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2048.81277</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>5288.748</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>635.40372</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>3945.92057</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>14548.243</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>597.04721</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>3831.78066</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>13535.296</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>38.35651</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>35.45081</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>911.951</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>78.68910000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>100.996</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>40820.06096</v>
@@ -1271,10 +1217,10 @@
         <v>46781.64453</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>56525.81502</v>
+        <v>56525.81501999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>58755.17029000001</v>
+        <v>58755.17029</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>80193.09354999999</v>
@@ -1292,13 +1238,18 @@
         <v>191396.08777</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>189692.35844</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>190767.3729</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>303843.612</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>29038.4781</v>
@@ -1331,13 +1282,18 @@
         <v>132011.19158</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>130938.62533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>131602.83434</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>231165.047</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>19246.89698</v>
@@ -1358,7 +1314,7 @@
         <v>32684.04771</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>42949.35946</v>
+        <v>42949.35945999999</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>47305.98872</v>
@@ -1370,13 +1326,18 @@
         <v>103079.45446</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>92270.80749000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90205.57695</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>178876.241</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>8441.639090000001</v>
@@ -1409,13 +1370,18 @@
         <v>22811.49768</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>24815.46135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>27293.58728</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>36992.501</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1349.94203</v>
@@ -1448,13 +1414,18 @@
         <v>6033.645629999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>13782.00997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14033.32359</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>15013.591</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>70.34652</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>282.714</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>11781.58286</v>
@@ -1520,28 +1496,33 @@
         <v>27730.8758</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>39148.67765999999</v>
+        <v>39148.67766</v>
       </c>
       <c r="L19" s="47" t="n">
         <v>59384.89619</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>58753.73311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>59164.53856</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>72678.565</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>6717.66306</v>
+        <v>6717.663060000001</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>6352.32667</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8011.89452</v>
+        <v>8011.894520000001</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>10881.39805</v>
@@ -1562,16 +1543,21 @@
         <v>27947.17138</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>37124.03129</v>
+        <v>37151.45729999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>41448.34081999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>42019.85988</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>52396.788</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>325.82862</v>
@@ -1586,7 +1572,7 @@
         <v>1792.85969</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2147.715229999999</v>
+        <v>2147.71523</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>1549.61657</v>
@@ -1604,13 +1590,18 @@
         <v>4342.37</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4646.37653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4650.20036</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9353.082</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>2814.69666</v>
@@ -1631,7 +1622,7 @@
         <v>7697.27791</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>8772.08085</v>
+        <v>8772.080850000002</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>9998.92657</v>
@@ -1640,16 +1631,21 @@
         <v>13137.07231</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>18158.62254</v>
+        <v>18159.87689</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>19210.12845</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19229.78814</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18303.337</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>3577.13778</v>
@@ -1658,7 +1654,7 @@
         <v>3232.57412</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4242.9436</v>
+        <v>4242.943600000001</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>5577.41375</v>
@@ -1679,16 +1675,21 @@
         <v>12185.8475</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>14623.03875</v>
+        <v>14649.21041</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>17591.83584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18139.87138</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>24740.369</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>5063.9198</v>
@@ -1697,7 +1698,7 @@
         <v>4210.71817</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5792.78502</v>
+        <v>5792.785019999999</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>4241.022639999999</v>
@@ -1718,22 +1719,27 @@
         <v>11201.50628</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22260.8649</v>
+        <v>22233.43889</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17305.39229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17144.67868</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>20281.777</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1808.57093</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>774.4467699999999</v>
+        <v>774.44677</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>877.55462</v>
@@ -1760,13 +1766,18 @@
         <v>24902.29213</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>12320.46538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>12321.43188</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>23316.935</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>593.9847599999999</v>
@@ -1868,7 +1889,7 @@
         <v>763.28036</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>739.0039400000001</v>
+        <v>739.0039399999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1093.48886</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>1602.58231</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>1572.301</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>56.2</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>256.042</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2.87083</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>976.36347</v>
@@ -2033,13 +2074,18 @@
         <v>21424.88853</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9159.270269999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9160.23677</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>20907.731</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>179.15187</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>1512.6128</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>580.861</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>965.9546899999999</v>
@@ -2183,19 +2244,24 @@
         <v>3490.07959</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4437.92152</v>
+        <v>4437.921520000001</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>21704.81823</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6198.06465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6199.926630000001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17182.461</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>34.32</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>234.0382</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>20.083</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>128.541</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>875.71529</v>
@@ -2345,13 +2426,18 @@
         <v>20745.43014</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5134.36922</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5136.231199999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16372.502</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>55.9194</v>
@@ -2444,7 +2540,7 @@
         <v>24.26659</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>61.87239</v>
+        <v>61.87238999999999</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>235.03983</v>
@@ -2464,20 +2560,25 @@
       <c r="M43" s="48" t="n">
         <v>779.65723</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>661.335</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>753.08389</v>
+        <v>753.0838899999999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>529.3365799999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>628.16882</v>
+        <v>628.1688200000001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>1203.58097</v>
@@ -2501,22 +2602,27 @@
         <v>2875.87445</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3507.3057</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3512.73026</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3848.048</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>753.08389</v>
+        <v>753.0838899999999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>529.3365799999999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>628.16882</v>
+        <v>628.1688200000001</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>1203.58097</v>
@@ -2540,13 +2646,18 @@
         <v>2875.87445</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3507.3057</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3512.73026</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3795.16</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>52.888</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5153.45215</v>
@@ -2606,7 +2722,7 @@
         <v>6590.38904</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>7544.09479</v>
+        <v>7544.094789999999</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>5798.553910000001</v>
@@ -2615,16 +2731,21 @@
         <v>12348.98476</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>22582.46435</v>
+        <v>22555.03834</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>19920.48732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>19753.45367</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>22568.203</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>272.04712</v>
@@ -2657,13 +2778,18 @@
         <v>763.63226</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1845.91474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1846.37818</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4997.405</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.25879</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>271.78833</v>
@@ -2735,19 +2866,24 @@
         <v>760.99262</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1845.91474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1846.37818</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4997.28</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>60.48868</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>72.94349000000001</v>
+        <v>72.94349</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>3139.89345</v>
@@ -2768,19 +2904,24 @@
         <v>1766.70849</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>622.11564</v>
+        <v>622.1156399999999</v>
       </c>
       <c r="L51" s="47" t="n">
         <v>3089.22984</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1085.90491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1104.50979</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2722.913</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>0.45194</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>23.7983</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>60.03673999999999</v>
+        <v>60.03674</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>57.39697</v>
@@ -2876,7 +3027,7 @@
         <v>91.06454000000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>465.63491</v>
+        <v>465.6349099999999</v>
       </c>
       <c r="I54" s="48" t="n">
         <v>269.80779</v>
@@ -2885,22 +3036,27 @@
         <v>1742.64992</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>595.60487</v>
+        <v>595.6048699999999</v>
       </c>
       <c r="L54" s="48" t="n">
         <v>3068.10686</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1062.10661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1080.71149</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2722.276</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5365.010590000001</v>
+        <v>5365.01059</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>4217.66524</v>
@@ -2909,13 +3065,13 @@
         <v>2641.84459</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4056.78489</v>
+        <v>4056.784890000001</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>3443.74095</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6299.30714</v>
+        <v>6299.307140000001</v>
       </c>
       <c r="I55" s="47" t="n">
         <v>8284.780419999999</v>
@@ -2927,25 +3083,30 @@
         <v>12810.84304</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20256.86677</v>
+        <v>20229.44076</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>20680.49715</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>20495.32206</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>24842.695</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>633.7284000000001</v>
+        <v>633.7283999999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>494.78977</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>706.62479</v>
+        <v>706.6247900000001</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>905.27088</v>
@@ -2969,13 +3130,18 @@
         <v>3535.69563</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4820.26624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4820.6794</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5512.761</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4731.28219</v>
@@ -2999,19 +3165,22 @@
         <v>7096.95057</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4105.950800000001</v>
+        <v>4105.9508</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>10561.96718</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>16721.17114</v>
+        <v>16693.74513</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15860.23091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15674.64266</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19329.934</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>19</v>
@@ -3059,13 +3231,16 @@
         <v>52</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>71</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>